--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PavleD\eclipse-workspace\Symphony\src\test\java\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PavleD\eclipse-workspace\Symphony\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11565" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11568" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>LogInTest</t>
   </si>
   <si>
-    <t>pavledimovic5@gmail.com</t>
+    <t>pavledimovic11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -379,17 +379,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>

--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -47,7 +47,7 @@
     <t>LogInTest</t>
   </si>
   <si>
-    <t>pavledimovic11@gmail.com</t>
+    <t>pavledimovic1133@gmail.com</t>
   </si>
 </sst>
 </file>
